--- a/Team 12 web_project_Scrum.xlsx
+++ b/Team 12 web_project_Scrum.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vigneshkandi/Desktop/web/Untitled/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D458467-97BE-A644-995F-53EFCCBE1BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ListOfFeatures" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="sprint1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="sprint2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="sprint3" sheetId="4" r:id="rId7"/>
+    <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
+    <sheet name="sprint1" sheetId="2" r:id="rId2"/>
+    <sheet name="sprint2" sheetId="3" r:id="rId3"/>
+    <sheet name="sprint3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mj3Fx9kkvMSO86fYorbxz2gIbCY6Q=="/>
@@ -19,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t>Product Backlog - Project Title (List of your features)</t>
   </si>
@@ -146,49 +155,76 @@
   <si>
     <t>Sprint Backlog : Sprint 3 (Feb 21 - Feb 25)</t>
   </si>
+  <si>
+    <t>Making Apartment database</t>
+  </si>
+  <si>
+    <t>Making Contract Database</t>
+  </si>
+  <si>
+    <t>Making Customer Database</t>
+  </si>
+  <si>
+    <t>Sandu</t>
+  </si>
+  <si>
+    <t>Vignesh</t>
+  </si>
+  <si>
+    <t>Edit database design</t>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="8">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="26.0"/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="18.0"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="22.0"/>
+      <sz val="22"/>
       <color rgb="FF7F7F7F"/>
       <name val="Century Gothic"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Century Gothic"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
     </font>
@@ -198,7 +234,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -226,11 +262,21 @@
     </fill>
   </fills>
   <borders count="9">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -239,9 +285,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -256,6 +304,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -267,15 +316,22 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -290,116 +346,105 @@
       <bottom style="thin">
         <color rgb="FFBFBFBF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="1"/>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9E2F3"/>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="ListOfFeatures-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="ListOfFeatures-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -408,9 +453,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6238875" cy="3552825"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvPr id="3" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -424,23 +475,23 @@
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -455,7 +506,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -469,7 +520,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -480,13 +531,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -515,7 +563,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -526,13 +574,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -561,7 +606,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -572,13 +617,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -607,7 +649,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -618,13 +660,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -653,7 +692,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -664,13 +703,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -699,7 +735,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -710,13 +746,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -745,7 +778,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -756,13 +789,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -791,7 +821,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -802,13 +832,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -823,7 +850,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" i="1" lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -834,7 +861,7 @@
             </a:rPr>
             <a:t>Ask questions during the consultation sessions if you are not sure about how you are proceeding </a:t>
           </a:r>
-          <a:endParaRPr b="1" i="1" sz="1100">
+          <a:endParaRPr sz="1100" b="1" i="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -847,8 +874,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -857,9 +884,15 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5381625" cy="1419225"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 4"/>
+        <xdr:cNvPr id="4" name="Shape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -873,23 +906,23 @@
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="accent5"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -918,7 +951,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -929,13 +962,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -964,7 +994,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -993,7 +1023,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1022,7 +1052,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1051,7 +1081,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1062,9 +1092,6 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1074,8 +1101,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1084,9 +1111,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6381750" cy="1971675"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 5"/>
+        <xdr:cNvPr id="5" name="Shape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1100,23 +1133,23 @@
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1145,7 +1178,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1156,13 +1189,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1191,7 +1221,7 @@
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1220,7 +1250,7 @@
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1249,7 +1279,7 @@
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1278,7 +1308,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1307,7 +1337,7 @@
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1336,7 +1366,7 @@
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1347,13 +1377,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1364,9 +1391,6 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1377,16 +1401,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:A56" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A2:A56">
   <tableColumns count="1">
-    <tableColumn name="User Stories / List of features" id="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="User Stories / List of features"/>
   </tableColumns>
-  <tableStyleInfo name="ListOfFeatures-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="ListOfFeatures-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1576,217 +1600,219 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="99.0"/>
-    <col customWidth="1" min="2" max="2" width="0.78"/>
-    <col customWidth="1" min="3" max="4" width="8.56"/>
-    <col customWidth="1" min="5" max="5" width="11.0"/>
-    <col customWidth="1" min="6" max="26" width="8.56"/>
+    <col min="1" max="1" width="99" customWidth="1"/>
+    <col min="2" max="2" width="0.83203125" customWidth="1"/>
+    <col min="3" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45.0" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="45" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="6"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="6"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="6"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="6"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="6"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="6"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="6"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="6"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="6"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="6"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="6"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="6"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="6"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="6"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="6"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="6"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="7"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -2727,563 +2753,577 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="50.78"/>
-    <col customWidth="1" min="2" max="2" width="8.22"/>
-    <col customWidth="1" min="3" max="3" width="13.22"/>
-    <col customWidth="1" min="4" max="4" width="10.89"/>
-    <col customWidth="1" min="5" max="26" width="8.56"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" ht="32.25" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" ht="43.5" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" ht="43.5" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="15" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="15" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="15" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="16" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -4256,562 +4296,559 @@
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.89"/>
-    <col customWidth="1" min="2" max="2" width="8.22"/>
-    <col customWidth="1" min="3" max="3" width="13.22"/>
-    <col customWidth="1" min="4" max="4" width="10.89"/>
-    <col customWidth="1" min="5" max="26" width="8.56"/>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" ht="27.0" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" ht="27" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="15" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="15" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="15" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="12" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="15" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="15" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="15" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="15" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="15" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="15" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="15" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="15" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="16" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -5784,562 +5821,559 @@
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.89"/>
-    <col customWidth="1" min="2" max="2" width="8.22"/>
-    <col customWidth="1" min="3" max="3" width="13.22"/>
-    <col customWidth="1" min="4" max="4" width="10.89"/>
-    <col customWidth="1" min="5" max="26" width="8.56"/>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="15" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="15" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="15" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="12" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="15" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="15" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="15" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="15" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="15" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="15" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="15" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="15" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="16" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -7312,8 +7346,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Team 12 web_project_Scrum.xlsx
+++ b/Team 12 web_project_Scrum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vigneshkandi/Desktop/web/Untitled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vigneshkandi/Desktop/web/src/Untitled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D458467-97BE-A644-995F-53EFCCBE1BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C9711C-D037-3240-94AE-CF9206E824FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
   <si>
     <t>Product Backlog - Project Title (List of your features)</t>
   </si>
@@ -178,6 +178,27 @@
   </si>
   <si>
     <t>completed</t>
+  </si>
+  <si>
+    <t>Discussed about java script features can be added</t>
+  </si>
+  <si>
+    <t>Added scroll to top of screen using java script</t>
+  </si>
+  <si>
+    <t>scrum editing and uploading</t>
+  </si>
+  <si>
+    <t>Making latest github commits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making Customer Database </t>
+  </si>
+  <si>
+    <t>suraj</t>
+  </si>
+  <si>
+    <t>team meeting</t>
   </si>
 </sst>
 </file>
@@ -2765,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4306,7 +4327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -4377,18 +4400,16 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+    <row r="4" spans="1:14" ht="43" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="11">
-        <v>2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -4403,15 +4424,15 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4425,15 +4446,15 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4447,15 +4468,15 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="11">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4487,11 +4508,15 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4505,11 +4530,15 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -4523,11 +4552,15 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -4541,11 +4574,15 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -4576,9 +4613,7 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -5831,7 +5866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/Team 12 web_project_Scrum.xlsx
+++ b/Team 12 web_project_Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vigneshkandi/Desktop/web/src/Untitled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C9711C-D037-3240-94AE-CF9206E824FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E12A82-3EC5-004E-98FC-83270807A2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
-  <si>
-    <t>Product Backlog - Project Title (List of your features)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="76">
   <si>
     <t>User Stories / List of features</t>
   </si>
@@ -66,12 +63,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>User Story/ Feature #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Universal Header and footer</t>
-  </si>
-  <si>
     <t>Suraj</t>
   </si>
   <si>
@@ -81,37 +72,10 @@
     <t>Designing database</t>
   </si>
   <si>
-    <t>sandu</t>
-  </si>
-  <si>
     <t>create github repo</t>
   </si>
   <si>
-    <t>everyone</t>
-  </si>
-  <si>
     <t>Scrum editing and uploading</t>
-  </si>
-  <si>
-    <t>vignesh</t>
-  </si>
-  <si>
-    <t>User Story #2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task </t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>User Story #3</t>
-  </si>
-  <si>
-    <t>User Story #4</t>
-  </si>
-  <si>
-    <t>User Story #5</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -123,46 +87,7 @@
     <t>STORY POINTS</t>
   </si>
   <si>
-    <t>User Story #1</t>
-  </si>
-  <si>
-    <t>Task : Make a list of categories of products</t>
-  </si>
-  <si>
-    <t>Pekka</t>
-  </si>
-  <si>
-    <t>Ongoing</t>
-  </si>
-  <si>
-    <t>Task : List products based on categories</t>
-  </si>
-  <si>
-    <t>Juha</t>
-  </si>
-  <si>
-    <t>Task : Search products</t>
-  </si>
-  <si>
-    <t>Johanna</t>
-  </si>
-  <si>
-    <t>Task: Display products</t>
-  </si>
-  <si>
-    <t>Markku</t>
-  </si>
-  <si>
     <t>Sprint Backlog : Sprint 3 (Feb 21 - Feb 25)</t>
-  </si>
-  <si>
-    <t>Making Apartment database</t>
-  </si>
-  <si>
-    <t>Making Contract Database</t>
-  </si>
-  <si>
-    <t>Making Customer Database</t>
   </si>
   <si>
     <t>Sandu</t>
@@ -174,38 +99,170 @@
     <t>Edit database design</t>
   </si>
   <si>
-    <t>ongoing</t>
-  </si>
-  <si>
     <t>completed</t>
   </si>
   <si>
     <t>Discussed about java script features can be added</t>
   </si>
   <si>
-    <t>Added scroll to top of screen using java script</t>
+    <t>Intial start</t>
   </si>
   <si>
-    <t>scrum editing and uploading</t>
+    <t xml:space="preserve"> Making universal Header and footer</t>
   </si>
   <si>
-    <t>Making latest github commits</t>
+    <t>Everyone</t>
   </si>
   <si>
-    <t xml:space="preserve">Making Customer Database </t>
+    <t>Database tasks</t>
   </si>
   <si>
-    <t>suraj</t>
+    <t>Github</t>
   </si>
   <si>
-    <t>team meeting</t>
+    <t>Adding collabarators to github</t>
+  </si>
+  <si>
+    <t>Creating github pages</t>
+  </si>
+  <si>
+    <t>Re-editig website layout as per new new features</t>
+  </si>
+  <si>
+    <t>Correcting css part</t>
+  </si>
+  <si>
+    <t>Planning features</t>
+  </si>
+  <si>
+    <t>Planning Database table functionality</t>
+  </si>
+  <si>
+    <t>Divided java script features</t>
+  </si>
+  <si>
+    <t>Making Apartment database table</t>
+  </si>
+  <si>
+    <t>Making Contract Database table</t>
+  </si>
+  <si>
+    <t>Making Customer Database table</t>
+  </si>
+  <si>
+    <t>Making Add Apartment page with php</t>
+  </si>
+  <si>
+    <t>Making Add Contract page with php</t>
+  </si>
+  <si>
+    <t>Making Add Customer page with php</t>
+  </si>
+  <si>
+    <t>Testing add page with database</t>
+  </si>
+  <si>
+    <t>Add to database page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieve database </t>
+  </si>
+  <si>
+    <t>Apartment list  data page</t>
+  </si>
+  <si>
+    <t>contract list data page</t>
+  </si>
+  <si>
+    <t>Customer list data page</t>
+  </si>
+  <si>
+    <t>Testing list page with database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete database </t>
+  </si>
+  <si>
+    <t>Customer data deleting</t>
+  </si>
+  <si>
+    <t>Apartment data deleting</t>
+  </si>
+  <si>
+    <t>Contract data deleting</t>
+  </si>
+  <si>
+    <t>Testing delete functionality</t>
+  </si>
+  <si>
+    <t>Updating database</t>
+  </si>
+  <si>
+    <t>Customer data updating fuctionality</t>
+  </si>
+  <si>
+    <t>Apartment data updating fuctionality</t>
+  </si>
+  <si>
+    <t>Contract data updating functionality</t>
+  </si>
+  <si>
+    <t>Testing update functionality</t>
+  </si>
+  <si>
+    <t>Javascript functionalities</t>
+  </si>
+  <si>
+    <t>Image zoom javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changing theme color in home java script </t>
+  </si>
+  <si>
+    <t>Scroll to top java script</t>
+  </si>
+  <si>
+    <t>Form validation</t>
+  </si>
+  <si>
+    <t>Additional tasks</t>
+  </si>
+  <si>
+    <t>Contact form  read page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact form responses to database </t>
+  </si>
+  <si>
+    <t>Staff table</t>
+  </si>
+  <si>
+    <t>Final steps</t>
+  </si>
+  <si>
+    <t>Testing every page and functionality</t>
+  </si>
+  <si>
+    <t>Updating scrum</t>
+  </si>
+  <si>
+    <t>Adding project to shell.hamk.fi</t>
+  </si>
+  <si>
+    <t>Login page-logout functionality</t>
+  </si>
+  <si>
+    <t>Product Backlog - Co living (List of your features)</t>
+  </si>
+  <si>
+    <t>Final testing in shell.hamk.fi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -247,6 +304,17 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Century Gothic"/>
     </font>
   </fonts>
@@ -380,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -416,6 +484,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1630,7 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="125" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1645,38 +1719,38 @@
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
@@ -2786,8 +2860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2801,7 +2875,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="32.25" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -2819,16 +2893,16 @@
     </row>
     <row r="2" spans="1:14" ht="43.5" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2843,7 +2917,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -2861,14 +2935,14 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -2883,14 +2957,14 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -2905,14 +2979,14 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -2927,14 +3001,14 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -2949,7 +3023,7 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -2967,14 +3041,14 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -2989,14 +3063,14 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -3011,14 +3085,14 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -3033,14 +3107,14 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -3055,7 +3129,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -3073,11 +3147,15 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -3091,11 +3169,15 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -3109,11 +3191,15 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -3127,11 +3213,15 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -3144,9 +3234,7 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -3162,9 +3250,7 @@
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -3180,9 +3266,7 @@
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -3198,9 +3282,7 @@
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -3216,9 +3298,7 @@
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -3234,9 +3314,7 @@
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -3252,9 +3330,7 @@
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -3270,9 +3346,7 @@
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A25" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -3288,9 +3362,7 @@
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A26" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -3306,9 +3378,7 @@
       <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A27" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -3325,7 +3395,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -4327,8 +4397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="144" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4340,9 +4410,9 @@
     <col min="5" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+    <row r="1" spans="1:14" ht="28" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -4360,16 +4430,16 @@
     </row>
     <row r="2" spans="1:14" ht="27" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -4384,7 +4454,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -4402,14 +4472,14 @@
     </row>
     <row r="4" spans="1:14" ht="43" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -4424,14 +4494,14 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -4446,14 +4516,14 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -4468,14 +4538,14 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -4490,7 +4560,7 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -4508,14 +4578,14 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -4530,14 +4600,14 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -4552,14 +4622,14 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -4574,14 +4644,14 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -4596,7 +4666,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -4613,10 +4683,16 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="11"/>
+      <c r="A14" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -4630,11 +4706,15 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -4648,11 +4728,15 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -4666,11 +4750,15 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -4683,9 +4771,7 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -4701,9 +4787,7 @@
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -4719,9 +4803,7 @@
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -4737,9 +4819,7 @@
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -4755,9 +4835,7 @@
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -4773,9 +4851,7 @@
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -4791,9 +4867,7 @@
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -4809,9 +4883,7 @@
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A25" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -4827,9 +4899,7 @@
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A26" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -4845,9 +4915,7 @@
       <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A27" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -4864,7 +4932,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -5866,8 +5934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView zoomScale="159" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -5879,9 +5947,9 @@
     <col min="5" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+    <row r="1" spans="1:14" ht="27" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -5897,18 +5965,18 @@
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+    <row r="2" spans="1:14" ht="27" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -5922,8 +5990,8 @@
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>31</v>
+      <c r="A3" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -5941,16 +6009,14 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="11">
-        <v>2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -5965,15 +6031,15 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -5987,15 +6053,15 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6009,15 +6075,15 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="11">
-        <v>2</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -6031,7 +6097,7 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -6049,11 +6115,15 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -6067,11 +6137,15 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -6085,11 +6159,15 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -6103,11 +6181,15 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -6121,7 +6203,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -6139,11 +6221,15 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -6157,11 +6243,15 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -6175,11 +6265,15 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -6193,11 +6287,15 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -6211,7 +6309,7 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -6229,11 +6327,15 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -6247,11 +6349,15 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -6265,11 +6371,15 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -6283,11 +6393,15 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -6301,7 +6415,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -6319,11 +6433,15 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -6337,11 +6455,15 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -6355,11 +6477,15 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -6373,10 +6499,12 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="D27" s="11"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -6391,7 +6519,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
